--- a/biology/Botanique/Figuier_de_Maurice/Figuier_de_Maurice.xlsx
+++ b/biology/Botanique/Figuier_de_Maurice/Figuier_de_Maurice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus mauritiana
 Le figuier de Maurice (Ficus mauritiana) est un arbre de la famille des Moracées endémique des Mascareignes, que l'on peut trouver en zone climatique humide jusqu'à 1000 mètres d'altitude.
